--- a/output/google_maps_data_SD_Sleman.xlsx
+++ b/output/google_maps_data_SD_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 618875</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.767121</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.767121</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.359125</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Rogoyudan/@-7.7671209,110.3230761,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af5f38f2d2957:0x4a1e32dfe48e9cac!8m2!3d-7.7671209!4d110.359125!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5r3d3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Rogoyudan/@-7.7671209,110.3230761,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af5f38f2d2957:0x4a1e32dfe48e9cac!8m2!3d-7.7671209!4d110.359125!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5r3d3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 618875</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.8</v>
+        <v>-7.770938</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.770938</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.338129</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Nogotirto/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587143e5bf83:0xf76f0836fdd8094c!8m2!3d-7.7709379!4d110.3381288!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5dx780?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,25 +586,24 @@
           <t>(0274) 5305727</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.763328</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.763328</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.337141</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Nahdlatul+Ulama+Yogyakarta/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587bd980e869:0x607580280a853d4!8m2!3d-7.7633283!4d110.3371405!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6rzwplc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Nahdlatul+Ulama+Yogyakarta/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587bd980e869:0x607580280a853d4!8m2!3d-7.7633283!4d110.3371405!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6rzwplc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -630,25 +622,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.773414</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.773414</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.332243</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Nogosaren/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587594524ffb:0x95e4f4812534fdc3!8m2!3d-7.7734137!4d110.3322428!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm29kvc9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Nogosaren/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587594524ffb:0x95e4f4812534fdc3!8m2!3d-7.7734137!4d110.3322428!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm29kvc9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -671,25 +662,24 @@
           <t>(0274) 6415369</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-7.761673</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.761673</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.344877</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Baturan+1/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58649061efe5:0x8c60cea0a9f592f8!8m2!3d-7.7616735!4d110.3448773!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1ydnty_c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Baturan+1/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58649061efe5:0x8c60cea0a9f592f8!8m2!3d-7.7616735!4d110.3448773!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1ydnty_c8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -712,25 +702,24 @@
           <t>(0274) 546604</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.759823</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.759823</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.375963</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pogung+Kidul/@-7.7598227,110.3399145,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58537b8a64d3:0x5398a4939ef032a!8m2!3d-7.7598227!4d110.3759634!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6dy31sd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pogung+Kidul/@-7.7598227,110.3399145,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58537b8a64d3:0x5398a4939ef032a!8m2!3d-7.7598227!4d110.3759634!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6dy31sd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -753,25 +742,24 @@
           <t>(0274) 623636</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.761515</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.761515</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.364232</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Sinduadi+1/@-7.7598227,110.3399145,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4457a7b5c1:0x9ef23d3d2b58da1d!8m2!3d-7.7615151!4d110.3642322!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzq7bwr3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Sinduadi+1/@-7.7598227,110.3399145,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4457a7b5c1:0x9ef23d3d2b58da1d!8m2!3d-7.7615151!4d110.3642322!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzq7bwr3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -798,25 +786,24 @@
           <t>(0274) 566682</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.772886</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.772886</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.372612</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Percobaan+2/@-7.7598227,110.3399145,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a584a29f8afc5:0xd2fba9275e452161!8m2!3d-7.7728862!4d110.3726116!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5j32bv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Percobaan+2/@-7.7598227,110.3399145,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a584a29f8afc5:0xd2fba9275e452161!8m2!3d-7.7728862!4d110.3726116!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5j32bv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -839,25 +826,24 @@
           <t>(0274) 627209</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.791004</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.791004</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.331852</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tegalyoso/@-7.7910037,110.2958035,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a580900000001:0x6a63c42f7c70ffc4!8m2!3d-7.7910037!4d110.3318524!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzsgx133?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tegalyoso/@-7.7910037,110.2958035,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a580900000001:0x6a63c42f7c70ffc4!8m2!3d-7.7910037!4d110.3318524!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzsgx133?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -880,25 +866,24 @@
           <t>(0274) 489170</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.784484</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.784484</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.412057</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Catur+Tunggal+6/@-7.7844844,110.3760077,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c30005db9f:0xb4cf446699dd11ad!8m2!3d-7.7844844!4d110.4120566!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzxfvsmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -917,25 +902,24 @@
           <t>(0274) 489170</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>-7.782537</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.782537</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.328176</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Banyuraden/@-7.7825367,110.2921267,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7e180a8a419:0xf1e4c01a69e61760!8m2!3d-7.7825367!4d110.3281756!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3b1wn0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,25 +938,24 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.760474</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.760474</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.432741</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Depok+1/@-7.7604737,110.3966916,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a2f37c0967d:0x4759095993c8991e!8m2!3d-7.7604737!4d110.4327405!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4fy0lg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -995,25 +978,24 @@
           <t>(0274) 4332024</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>-7.775121</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.775121</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.431924</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Nanggulan+%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%81%EA%A6%92%EA%A6%B8%EA%A6%AD%EA%A6%A4%EA%A7%80/@-7.7604737,110.3966916,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a241d135b0f:0xbea3d7545ec1802c!8m2!3d-7.7751213!4d110.4319242!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzr_q3l7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Nanggulan+%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%81%EA%A6%92%EA%A6%B8%EA%A6%AD%EA%A6%A4%EA%A7%80/@-7.7604737,110.3966916,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a241d135b0f:0xbea3d7545ec1802c!8m2!3d-7.7751213!4d110.4319242!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzr_q3l7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1036,25 +1018,24 @@
           <t>(0274) 585856</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.758828</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.758828</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.386251</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Caturtunggal+1/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59a933b3eb57:0x220110ed9a873c90!8m2!3d-7.7588277!4d110.3862507!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11c1qxxd2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Caturtunggal+1/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59a933b3eb57:0x220110ed9a873c90!8m2!3d-7.7588277!4d110.3862507!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11c1qxxd2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1077,25 +1058,24 @@
           <t>(0274) 587148</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.763564</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.763564</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.389599</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Deresan/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59d43f9d0ceb:0x134c831f4f80c253!8m2!3d-7.7635645!4d110.3895992!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6df7g9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Deresan/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59d43f9d0ceb:0x134c831f4f80c253!8m2!3d-7.7635645!4d110.3895992!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6df7g9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1118,25 +1098,24 @@
           <t>0857-2987-8554</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>-7.759294</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.759294</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.374277</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sinduadi+Timur/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58540cc36ca3:0xa34f35cfa0e8cf11!8m2!3d-7.7592945!4d110.3742773!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm47hz1l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sinduadi+Timur/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58540cc36ca3:0xa34f35cfa0e8cf11!8m2!3d-7.7592945!4d110.3742773!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm47hz1l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1159,25 +1138,24 @@
           <t>(0274) 546684</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.777099</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.777099</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.381361</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Samirono+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%A9%EA%A6%B6%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%BA%EA%A6%B4)/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59caff4764f1:0x2652c5f94d715eb5!8m2!3d-7.7770988!4d110.3813607!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b620zpy_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Samirono+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%A9%EA%A6%B6%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%BA%EA%A6%B4)/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59caff4764f1:0x2652c5f94d715eb5!8m2!3d-7.7770988!4d110.3813607!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b620zpy_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1200,25 +1178,24 @@
           <t>(0274) 541991</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-7.759196</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.759196</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.371807</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salman+Al+Farisi/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58ff9408521d:0x670c9e09b094cde6!8m2!3d-7.7591961!4d110.3718067!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bc7ttcpz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salman+Al+Farisi/@-7.7588277,110.3502018,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58ff9408521d:0x670c9e09b094cde6!8m2!3d-7.7591961!4d110.3718067!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bc7ttcpz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1237,25 +1214,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>-7.760678</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.760678</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.429011</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Mustokorejo/@-7.7606776,110.392962,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a598851dd8245:0x1ca66c6ae3cad1fe!8m2!3d-7.7606776!4d110.4290109!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5kh0kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Mustokorejo/@-7.7606776,110.392962,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a598851dd8245:0x1ca66c6ae3cad1fe!8m2!3d-7.7606776!4d110.4290109!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5kh0kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1274,25 +1250,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>-7.756848</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.756848</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.423177</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Timbulharjo+Depok/@-7.7606776,110.392962,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59853fcf361d:0x8c549add2b241b6c!8m2!3d-7.7568478!4d110.423177!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11k4k51n9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Timbulharjo+Depok/@-7.7606776,110.392962,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59853fcf361d:0x8c549add2b241b6c!8m2!3d-7.7568478!4d110.423177!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11k4k51n9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1311,25 +1286,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.9</v>
+        <v>-7.773795</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.773795</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.412465</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Babarsari+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A7%EA%A6%A7%EA%A6%82%EA%A6%B1%EA%A6%AB%EA%A6%B6/@-7.7737953,110.3764162,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59f204022bc7:0x2e002ee263f391!8m2!3d-7.7737953!4d110.4124651!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3z1v17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1348,25 +1322,24 @@
           <t>(0274) 489272</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.776557</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.776557</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.421478</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Corongan+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%95%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%94%EA%A6%A4%EA%A7%80/@-7.7737953,110.3764162,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a24029f4a2f:0x3ab9a6662e273f4d!8m2!3d-7.776557!4d110.4214778!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzvbsb3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1385,25 +1358,24 @@
           <t>(0274) 9232727</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.768741</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.768741</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.368246</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Muhammadiyah+Blunyah/@-7.7687415,110.3321967,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a584f151c31dd:0x8a1de3b308eee1aa!8m2!3d-7.7687415!4d110.3682456!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6212hqk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1422,25 +1394,24 @@
           <t>(0274) 553861</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.764101</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.764101</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.380678</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Caturtunggal+3/@-7.7687415,110.3321967,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59ad7b9cf011:0x177dbf348cda5cd1!8m2!3d-7.7641014!4d110.3806775!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzwl8h7v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1459,25 +1430,24 @@
           <t>(0274) 489161</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>-7.780018</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.780018</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.410699</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kledokan/@-7.7800185,110.3746505,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59eef7e5e2e1:0xb54b41d15320c1f7!8m2!3d-7.7800185!4d110.4106994!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm33nt57?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kledokan/@-7.7800185,110.3746505,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59eef7e5e2e1:0xb54b41d15320c1f7!8m2!3d-7.7800185!4d110.4106994!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm33nt57?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1500,25 +1470,24 @@
           <t>(0274) 489161</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.1</v>
+        <v>-7.753649</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.753649</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.358066</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sinduadi+2/@-7.7536491,110.3220169,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58f5a22cbb45:0xc97cfeda8b2ed31c!8m2!3d-7.7536491!4d110.3580658!15sCglTRCBTbGVtYW6SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5vgthw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sinduadi+2/@-7.7536491,110.3220169,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58f5a22cbb45:0xc97cfeda8b2ed31c!8m2!3d-7.7536491!4d110.3580658!15sCglTRCBTbGVtYW6SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5vgthw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1541,25 +1510,24 @@
           <t>(0274) 627235</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.79035</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.79035</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.336367</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Kanoman/@-7.7903495,110.3003179,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58069cac925d:0x33ef31f8e0b94f8b!8m2!3d-7.7903495!4d110.3363668!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b64c8q7b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1582,25 +1550,24 @@
           <t>(0274) 581479</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.8</v>
+        <v>-7.778086</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.778086</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.345191</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Demakijo+2/@-7.7903495,110.3003179,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5812e48a0829:0x5364c5ac2a506147!8m2!3d-7.7780865!4d110.3451908!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2h_j8p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1619,25 +1586,24 @@
           <t>(0274) 6496728</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-7.779971</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.779971</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.323986</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sidoarum/@-7.7903495,110.3003179,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7e72711171f:0x68c9a5c93942bf56!8m2!3d-7.7799712!4d110.3239855!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4g_j26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1656,25 +1622,24 @@
           <t>(0274) 540886</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>-7.767605</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.767605</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.395815</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Puren/@-7.7676049,110.3597661,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59bbf327d277:0xeb17f2f06534124c!8m2!3d-7.7676049!4d110.395815!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4mk_l2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1693,25 +1658,24 @@
           <t>0811-2636-991</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.7</v>
+        <v>-7.781769</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.781769</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.39839</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ambarukmo/@-7.7676049,110.3597661,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59b0e56d1def:0xef2e98aaec78ddfd!8m2!3d-7.781769!4d110.3983904!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3hknkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ambarukmo/@-7.7676049,110.3597661,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59b0e56d1def:0xef2e98aaec78ddfd!8m2!3d-7.781769!4d110.3983904!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3hknkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1734,25 +1698,24 @@
           <t>(0274) 7376119</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.7427</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.7427</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.413816</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Unggulan+'Aisyiyah+Ngemplak+Sleman+(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%88%EA%A6%81%EA%A6%92%EA%A6%B8%EA%A6%AD%EA%A6%A4%EA%A7%80'%EA%A6%8D%EA%A6%B1%EA%A6%BE%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%94%EA%A6%BC%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%AD%EA%A6%8F%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%A9%EA%A6%A4%EA%A7%80)/@-7.7427002,110.3777672,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59700468fa6f:0xe17e2aa8f1e4745!8m2!3d-7.7427002!4d110.4138161!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11f6z3prw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Unggulan+'Aisyiyah+Ngemplak+Sleman+(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%88%EA%A6%81%EA%A6%92%EA%A6%B8%EA%A6%AD%EA%A6%A4%EA%A7%80'%EA%A6%8D%EA%A6%B1%EA%A6%BE%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%94%EA%A6%BC%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%AD%EA%A6%8F%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%A9%EA%A6%A4%EA%A7%80)/@-7.7427002,110.3777672,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59700468fa6f:0xe17e2aa8f1e4745!8m2!3d-7.7427002!4d110.4138161!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11f6z3prw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1779,25 +1742,24 @@
           <t>0895-3781-61122</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.791734</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.791734</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.325956</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Jabal+Nur/@-7.7917343,110.2899073,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7fdeefae099:0x6bb1d76fac13c080!8m2!3d-7.7917343!4d110.3259562!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6479p8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Jabal+Nur/@-7.7917343,110.2899073,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7fdeefae099:0x6bb1d76fac13c080!8m2!3d-7.7917343!4d110.3259562!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6479p8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1820,25 +1782,24 @@
           <t>(0274) 884177</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.6</v>
+        <v>-7.756223</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.756223</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.407459</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Perumnas+Condongcatur/@-7.7562229,110.3714102,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a599e9025a755:0xc93c9a61097dbbb7!8m2!3d-7.7562229!4d110.4074591!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6jb_0hp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Perumnas+Condongcatur/@-7.7562229,110.3714102,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a599e9025a755:0xc93c9a61097dbbb7!8m2!3d-7.7562229!4d110.4074591!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6jb_0hp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1861,25 +1822,24 @@
           <t>(0274) 543541</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.76272</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.76272</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.38234</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangwuni+1/@-7.7627196,110.3462908,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59adbb5ca4fd:0xdd77b9986b6d0a0b!8m2!3d-7.7627196!4d110.3823397!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6_9l1gz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangwuni+1/@-7.7627196,110.3462908,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59adbb5ca4fd:0xdd77b9986b6d0a0b!8m2!3d-7.7627196!4d110.3823397!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6_9l1gz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1902,25 +1862,24 @@
           <t>(0274) 436022</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.745357</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.745357</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.374925</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sariharjo/@-7.7627196,110.3462908,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58fce9a53bdb:0xfde122b334304dce!8m2!3d-7.7453572!4d110.3749245!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3xcthx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sariharjo/@-7.7627196,110.3462908,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58fce9a53bdb:0xfde122b334304dce!8m2!3d-7.7453572!4d110.3749245!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3xcthx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1943,25 +1902,24 @@
           <t>(0274) 617118</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>-7.796301</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.796301</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.33542</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Banyuraden/@-7.7963008,110.2993706,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5801eac37afb:0x6e417affc8911519!8m2!3d-7.7963008!4d110.3354195!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4s4svx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Banyuraden/@-7.7963008,110.2993706,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5801eac37afb:0x6e417affc8911519!8m2!3d-7.7963008!4d110.3354195!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4s4svx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1984,25 +1942,24 @@
           <t>(0274) 4332331</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.1</v>
+        <v>-7.77213</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.77213</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.434595</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ringinsari+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%AB%EA%A6%B6/@-7.7721305,110.3985461,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a1882544a63:0xcee48f9d6b71986d!8m2!3d-7.7721305!4d110.434595!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm36f92w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ringinsari+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%AB%EA%A6%B6/@-7.7721305,110.3985461,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a1882544a63:0xcee48f9d6b71986d!8m2!3d-7.7721305!4d110.434595!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm36f92w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2021,25 +1978,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.1</v>
+        <v>-7.79112</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.79112</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.410657</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Adisucipto+2/@-7.7911196,110.3746076,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59e3ab5e3e0f:0xd621fff427e3cb76!8m2!3d-7.7911196!4d110.4106565!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11c2pjttjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Adisucipto+2/@-7.7911196,110.3746076,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59e3ab5e3e0f:0xd621fff427e3cb76!8m2!3d-7.7911196!4d110.4106565!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11c2pjttjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2062,25 +2018,24 @@
           <t>0813-2883-5382</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.755768</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.755768</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.368344</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gemawang/@-7.7557682,110.332295,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5857c17b1fdb:0x894764518cf8205!8m2!3d-7.7557682!4d110.3683439!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11cltfprsd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gemawang/@-7.7557682,110.332295,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5857c17b1fdb:0x894764518cf8205!8m2!3d-7.7557682!4d110.3683439!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11cltfprsd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2103,25 +2058,24 @@
           <t>(0274) 865546</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>-7.742861</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.742861</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.372126</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jongkang/@-7.7557682,110.332295,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58e498dbc043:0x43a5a6525a206e70!8m2!3d-7.7428611!4d110.3721261!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm35tgcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jongkang/@-7.7557682,110.332295,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58e498dbc043:0x43a5a6525a206e70!8m2!3d-7.7428611!4d110.3721261!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm35tgcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2140,25 +2094,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.9</v>
+        <v>-7.783439</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.783439</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.339645</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Patran/@-7.7834391,110.3035965,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a580ef6667c6b:0x18d3561664feca70!8m2!3d-7.7834391!4d110.3396454!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dx9gjzwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Patran/@-7.7834391,110.3035965,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a580ef6667c6b:0x18d3561664feca70!8m2!3d-7.7834391!4d110.3396454!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dx9gjzwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2177,25 +2130,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.9</v>
+        <v>-7.749415</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.749415</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.387008</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Kentungan/@-7.7494152,110.3509592,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59068f1ada15:0x22e3dd0272acb865!8m2!3d-7.7494152!4d110.3870081!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4n5jkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2214,25 +2166,24 @@
           <t>(0274) 889144</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.2</v>
+        <v>-7.749497</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.749497</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.387036</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Condongcatur/@-7.7494152,110.3509592,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591ab0315ffd:0x8753a02d448076e4!8m2!3d-7.7494967!4d110.3870361!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1ptvv5_81?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Condongcatur/@-7.7494152,110.3509592,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591ab0315ffd:0x8753a02d448076e4!8m2!3d-7.7494967!4d110.3870361!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1ptvv5_81?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2255,25 +2206,24 @@
           <t>(0274) 489757</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>-7.784742</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.784742</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.400489</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Nogopuro/@-7.7847421,110.3644396,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59dd30550e37:0x64b5b7ac76e57056!8m2!3d-7.7847421!4d110.4004885!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b67fk3t4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Nogopuro/@-7.7847421,110.3644396,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59dd30550e37:0x64b5b7ac76e57056!8m2!3d-7.7847421!4d110.4004885!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b67fk3t4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2292,25 +2242,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.5</v>
+        <v>-7.76128</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.76128</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.405312</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngringin+Depok/@-7.7847421,110.3644396,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5999b17f06ef:0xee0752078d2682d6!8m2!3d-7.7612804!4d110.4053116!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1tcy_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngringin+Depok/@-7.7847421,110.3644396,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5999b17f06ef:0xee0752078d2682d6!8m2!3d-7.7612804!4d110.4053116!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm1tcy_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2333,25 +2282,24 @@
           <t>(0274) 4462328</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.7</v>
+        <v>-7.751041</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.751041</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.41147</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangasem+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%AB%EA%A6%94%EA%A6%B1%EA%A6%BA%EA%A6%A9%EA%A7%80/@-7.7510409,110.3754212,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5976fe469bad:0x988262a7e62b31e!8m2!3d-7.7510409!4d110.4114701!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzqp00nz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangasem+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%AB%EA%A6%94%EA%A6%B1%EA%A6%BA%EA%A6%A9%EA%A7%80/@-7.7510409,110.3754212,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5976fe469bad:0x988262a7e62b31e!8m2!3d-7.7510409!4d110.4114701!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzqp00nz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2378,25 +2326,24 @@
           <t>(0274) 2923001</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>-7.773666</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.773666</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.342215</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Teladan+Yogyakarta/@-7.7736661,110.3061665,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58720c16968b:0x8cfd98d48591c688!8m2!3d-7.7736661!4d110.3422154!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bx0hfsfg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Teladan+Yogyakarta/@-7.7736661,110.3061665,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58720c16968b:0x8cfd98d48591c688!8m2!3d-7.7736661!4d110.3422154!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bx0hfsfg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2415,25 +2362,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F50" t="n">
-        <v>3.8</v>
+        <v>-7.746683</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.746683</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.366761</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Bakalan/@-7.7466832,110.3307119,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58fa825f5b89:0x56d5929b2679781a!8m2!3d-7.7466832!4d110.3667608!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm6j91cd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2448,25 +2394,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.775654</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.775654</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.397555</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sapen+Papringan/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c7367de097:0x943e2fb18d1d62ed!8m2!3d-7.7756539!4d110.3975553!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bzq1kg7m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sapen+Papringan/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c7367de097:0x943e2fb18d1d62ed!8m2!3d-7.7756539!4d110.3975553!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bzq1kg7m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2489,25 +2434,24 @@
           <t>(0274) 547451</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>-7.767226</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.767226</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.38845</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Caturtunggal+7/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59b0f1cfbac1:0x68e6847d183a88c8!8m2!3d-7.7672265!4d110.38845!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b639pnrl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Caturtunggal+7/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59b0f1cfbac1:0x68e6847d183a88c8!8m2!3d-7.7672265!4d110.38845!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b639pnrl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2526,25 +2470,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.6</v>
+        <v>-7.749834</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.749834</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.406778</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Minomartani/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59744825b23d:0x7cb9a1245ceefbfe!8m2!3d-7.7498343!4d110.4067775!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b69fq9gb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Minomartani/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59744825b23d:0x7cb9a1245ceefbfe!8m2!3d-7.7498343!4d110.4067775!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b69fq9gb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2567,25 +2510,24 @@
           <t>(0274) 882540</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.8</v>
+        <v>-7.750005</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.750005</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.404</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Sarikarya(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A6%BA%EA%A6%92%EA%A6%BA%EA%A6%AB%EA%A6%B6%EA%A6%B1%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%82%EA%A6%AA)/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5974dd7c8cb3:0x2cad6b1cb3c2a575!8m2!3d-7.7500053!4d110.4039995!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm38kbtk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2604,25 +2546,24 @@
           <t>(0274) 2830384</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>-7.757315</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.757315</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.395724</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Gejayan/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a599c04c87c97:0x87ebf5cae27e79ad!8m2!3d-7.7573153!4d110.3957236!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm32g0xb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2645,25 +2586,24 @@
           <t>(0274) 544397</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.5</v>
+        <v>-7.7818</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.7818</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.394693</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+BOPKRI+Demangan+III/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c414bea83f:0x11154b3e7ee0404f!8m2!3d-7.7817998!4d110.3946927!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzrqwjw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+BOPKRI+Demangan+III/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c414bea83f:0x11154b3e7ee0404f!8m2!3d-7.7817998!4d110.3946927!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzrqwjw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2690,25 +2630,24 @@
           <t>(0274) 544397</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.735947</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.735947</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.423008</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Model+Sleman/@-7.7359467,110.3869589,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59617ea16d5f:0x4922407f50094724!8m2!3d-7.7359467!4d110.4230078!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F12ll8nfp9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2731,25 +2670,24 @@
           <t>(0274) 4477257</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.753222</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.753222</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.364451</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Jombor+Lor/@-7.7532216,110.3284025,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58f7b0a13161:0x9fb654228b820c2b!8m2!3d-7.7532216!4d110.3644514!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11hbpqcdw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2772,25 +2710,24 @@
           <t>(0274) 4463740</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.6</v>
+        <v>-7.737992</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.737992</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.380426</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Nglempong/@-7.7532216,110.3284025,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591e70af2339:0xb735510edcb6a20b!8m2!3d-7.7379923!4d110.3804256!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm49hf8v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2813,25 +2750,24 @@
           <t>(0274) 866744</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.7</v>
+        <v>-7.742062</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.742062</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.374486</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Luqman+Al+Hakim+Sleman/@-7.7532216,110.3284025,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58e37a03551f:0xcbff7b3bc1f0e99f!8m2!3d-7.7420621!4d110.3744857!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bx5pzcb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2850,25 +2786,24 @@
           <t>(0274) 620949</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.4</v>
+        <v>-7.764903</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.764903</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.337175</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Dasar+Negeri+Tuguran/@-7.7649025,110.3011264,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587a21481b6f:0x87930716fc367eb!8m2!3d-7.7649025!4d110.3371753!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5yclc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Dasar+Negeri+Tuguran/@-7.7649025,110.3011264,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587a21481b6f:0x87930716fc367eb!8m2!3d-7.7649025!4d110.3371753!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5yclc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2887,25 +2822,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.783033</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.783033</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.317823</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Krapyak(%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BF%EA%A6%A5%EA%A6%BE%EA%A6%8F%EA%A7%80)/@-7.7830334,110.2817737,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7ef4cba783f:0x8fc6c353e42a85f7!8m2!3d-7.7830334!4d110.3178226!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxhVXg2WVZSM0VBReABAPoBBQi7ARAt!16s%2Fg%2F1hm4912dl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Krapyak(%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%8F%EA%A6%BF%EA%A6%A5%EA%A6%BE%EA%A6%8F%EA%A7%80)/@-7.7830334,110.2817737,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7ef4cba783f:0x8fc6c353e42a85f7!8m2!3d-7.7830334!4d110.3178226!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxhVXg2WVZSM0VBReABAPoBBQi7ARAt!16s%2Fg%2F1hm4912dl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2928,25 +2862,24 @@
           <t>(0274) 7826153</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.4</v>
+        <v>-7.784511</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.784511</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.318197</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Mejing+1/@-7.7830334,110.2817737,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7e430c66a0f:0xf2bc1085cdee2e8e!8m2!3d-7.7845109!4d110.3181973!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhkRkJxWjFKM0VBReABAPoBBAgAEEk!16s%2Fg%2F1pzstq16r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Mejing+1/@-7.7830334,110.2817737,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7e430c66a0f:0xf2bc1085cdee2e8e!8m2!3d-7.7845109!4d110.3181973!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhkRkJxWjFKM0VBReABAPoBBAgAEEk!16s%2Fg%2F1pzstq16r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2969,25 +2902,24 @@
           <t>(0274) 486619</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.6</v>
+        <v>-7.761714</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.761714</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.406676</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Condongcatur/@-7.7617138,110.3706267,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5999bf00f015:0x774dd1c7c8518545!8m2!3d-7.7617138!4d110.4066756!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkM051T0ZSQkVBReABAPoBBAgAEBE!16s%2Fg%2F1z3t2khb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Condongcatur/@-7.7617138,110.3706267,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5999bf00f015:0x774dd1c7c8518545!8m2!3d-7.7617138!4d110.4066756!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkM051T0ZSQkVBReABAPoBBAgAEBE!16s%2Fg%2F1z3t2khb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -3010,25 +2942,24 @@
           <t>(0274) 4462435</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.9</v>
+        <v>-7.751155</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.751155</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.439682</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tajem+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A0%EA%A6%97%EA%A6%BA%EA%A6%A9%EA%A7%80/@-7.7511551,110.403633,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a241de26b2d:0x8dcf1551164a97ba!8m2!3d-7.7511551!4d110.4396819!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJPWEZJZEcxM1JSQULgAQD6AQQIABA1!16s%2Fg%2F1pzthw3g8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tajem+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A0%EA%A6%97%EA%A6%BA%EA%A6%A9%EA%A7%80/@-7.7511551,110.403633,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a241de26b2d:0x8dcf1551164a97ba!8m2!3d-7.7511551!4d110.4396819!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJPWEZJZEcxM1JSQULgAQD6AQQIABA1!16s%2Fg%2F1pzthw3g8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3055,25 +2986,24 @@
           <t>(0274) 885985</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.6</v>
+        <v>-7.741079</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.741079</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.397147</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gambiranom/@-7.7410794,110.361098,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591231ff495b:0x914563d2441937a5!8m2!3d-7.7410794!4d110.3971469!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTFiMHB0WkVwbkVBReABAPoBBAgAECs!16s%2Fg%2F11c5qrdr1s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gambiranom/@-7.7410794,110.361098,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591231ff495b:0x914563d2441937a5!8m2!3d-7.7410794!4d110.3971469!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTFiMHB0WkVwbkVBReABAPoBBAgAECs!16s%2Fg%2F11c5qrdr1s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3096,25 +3026,24 @@
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.7</v>
+        <v>-7.80793</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.80793</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.424452</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Noyokerten/@-7.8079302,110.3884035,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a574c99b088d5:0xb54aefd18279f599!8m2!3d-7.8079302!4d110.4244524!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNMV1Z4YzJKQkVBReABAPoBBAgAECM!16s%2Fg%2F1hm4xr8b9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Noyokerten/@-7.8079302,110.3884035,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a574c99b088d5:0xb54aefd18279f599!8m2!3d-7.8079302!4d110.4244524!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNMV1Z4YzJKQkVBReABAPoBBAgAECM!16s%2Fg%2F1hm4xr8b9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3137,25 +3066,24 @@
           <t>(0274) 4399794</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.751228</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.751228</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.379275</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Purwosari/@-7.7512279,110.3432257,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5901d236bbfd:0xeb713bbd9436a6bd!8m2!3d-7.7512279!4d110.3792746!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRlamRJTUVkUkVBReABAPoBBAgAEB4!16s%2Fg%2F1hm3wyglw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Purwosari/@-7.7512279,110.3432257,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5901d236bbfd:0xeb713bbd9436a6bd!8m2!3d-7.7512279!4d110.3792746!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRlamRJTUVkUkVBReABAPoBBAgAEB4!16s%2Fg%2F1hm3wyglw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3174,25 +3102,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.8</v>
+        <v>-7.798299</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.798299</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.326041</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Gamping/@-7.7982988,110.2899919,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7ff5ce9f287:0xea6e3cc155ac96dc!8m2!3d-7.7982988!4d110.3260408!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhOVGxVVG5CblJSQULgAQD6AQQIABA1!16s%2Fg%2F1hm3jgnbq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Gamping/@-7.7982988,110.2899919,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7ff5ce9f287:0xea6e3cc155ac96dc!8m2!3d-7.7982988!4d110.3260408!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhOVGxVVG5CblJSQULgAQD6AQQIABA1!16s%2Fg%2F1hm3jgnbq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3211,25 +3138,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.2</v>
+        <v>-7.744275</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.744275</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.355482</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngemplak+Nganti/@-7.7442754,110.3194329,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58ed4f70fc95:0x7338c6729da8ce31!8m2!3d-7.7442754!4d110.3554818!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXphMDFFVURGblJSQULgAQD6AQQIABAy!16s%2Fg%2F1hm1rkc13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngemplak+Nganti/@-7.7442754,110.3194329,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58ed4f70fc95:0x7338c6729da8ce31!8m2!3d-7.7442754!4d110.3554818!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXphMDFFVURGblJSQULgAQD6AQQIABAy!16s%2Fg%2F1hm1rkc13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3248,25 +3174,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>-7.777964</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.777964</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.390764</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Condongcatur+2/@-7.7779642,110.354715,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5969eb481bad:0x26b64e3eaacb33ff!8m2!3d-7.7779642!4d110.3907639!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11v03xw52f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Condongcatur+2/@-7.7779642,110.354715,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5969eb481bad:0x26b64e3eaacb33ff!8m2!3d-7.7779642!4d110.3907639!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11v03xw52f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3289,25 +3214,24 @@
           <t>(0274) 866034</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.6</v>
+        <v>-7.700249</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.700249</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.347828</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sleman+I/@-7.7002488,110.3117788,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f45b9c172b7:0x33e0ac905cdf5c48!8m2!3d-7.7002488!4d110.3478277!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFYMHhVZW10M1JSQULgAQD6AQQIABAu!16s%2Fg%2F1tfcqnsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sleman+I/@-7.7002488,110.3117788,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f45b9c172b7:0x33e0ac905cdf5c48!8m2!3d-7.7002488!4d110.3478277!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFYMHhVZW10M1JSQULgAQD6AQQIABAu!16s%2Fg%2F1tfcqnsb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3334,25 +3258,24 @@
           <t>(0274) 4362440</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.8</v>
+        <v>-7.734999</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.734999</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.364201</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Mlati+1/@-7.7349989,110.3281517,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58e82faac8ef:0x8d4634ef76a1f3a9!8m2!3d-7.7349989!4d110.3642006!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklMWEJYTTNwblJSQULgAQD6AQQIABAv!16s%2Fg%2F1hm5fnnll?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Mlati+1/@-7.7349989,110.3281517,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58e82faac8ef:0x8d4634ef76a1f3a9!8m2!3d-7.7349989!4d110.3642006!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklMWEJYTTNwblJSQULgAQD6AQQIABAv!16s%2Fg%2F1hm5fnnll?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3379,25 +3302,24 @@
           <t>(0274) 4462882</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.7</v>
+        <v>-7.747898</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.747898</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.39658</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDIT+Salsabila+Klaseman+Unit+1/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a590eabc4f0bd:0x2e0195c665877dbe!8m2!3d-7.7478981!4d110.3965798!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhVFIyZUhKQlJSQULgAQD6AQQIKxAj!16s%2Fg%2F1pzqjctw6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDIT+Salsabila+Klaseman+Unit+1/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a590eabc4f0bd:0x2e0195c665877dbe!8m2!3d-7.7478981!4d110.3965798!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhVFIyZUhKQlJSQULgAQD6AQQIKxAj!16s%2Fg%2F1pzqjctw6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3416,25 +3338,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.5</v>
+        <v>-7.755315</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.755315</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.411286</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Perumnas+3(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%AB%EA%A6%B8%EA%A6%A9%EA%A7%80%EA%A6%A4%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%93%EA%A7%87)/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a599c54dfa127:0xbe2d1f9b63ffb554!8m2!3d-7.7553149!4d110.4112864!15sCglTRCBTbGVtYW6SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm4rcs0z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Perumnas+3(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A2%EA%A7%80%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%AB%EA%A6%B8%EA%A6%A9%EA%A7%80%EA%A6%A4%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%93%EA%A7%87)/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a599c54dfa127:0xbe2d1f9b63ffb554!8m2!3d-7.7553149!4d110.4112864!15sCglTRCBTbGVtYW6SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm4rcs0z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3457,25 +3378,24 @@
           <t>(0274) 880865</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.6</v>
+        <v>-7.746829</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.746829</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.40577</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Minomartani+2/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59739b8fd3c7:0x5948a66c72be101b!8m2!3d-7.746829!4d110.4057699!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlFka3hRVlV4bkVBReABAPoBBAgAEEQ!16s%2Fg%2F11b6yjmpnc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Minomartani+2/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59739b8fd3c7:0x5948a66c72be101b!8m2!3d-7.746829!4d110.4057699!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlFka3hRVlV4bkVBReABAPoBBAgAEEQ!16s%2Fg%2F11b6yjmpnc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -3498,25 +3418,24 @@
           <t>(0274) 886272</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.4</v>
+        <v>-7.746484</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.746484</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.391828</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Kanisius+Sengkan/@-7.7478981,110.3605309,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a590f74737391:0x6683adcddbbea25e!8m2!3d-7.7464835!4d110.3918282!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJOelZIVG05M1JSQULgAQD6AQQIABAb!16s%2Fg%2F1hm5lq2nb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3531,25 +3450,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.6</v>
+        <v>-7.752684</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.752684</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.36827</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Karitas+Nandan/@-7.7526843,110.3322215,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58f84a3c89b7:0xd1806c580f942db9!8m2!3d-7.7526843!4d110.3682704!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRibVJQVEVOUkVBReABAPoBBAgAEA0!16s%2Fg%2F1hm4p3fk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3568,25 +3486,24 @@
           <t>(0274) 556674</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.3</v>
+        <v>-7.785936</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.785936</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.392497</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sapen/@-7.7859359,110.3564478,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59dafb0f533f:0x703ab4cd80139883!8m2!3d-7.7859359!4d110.3924967!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1jMWxJVDFWbkVBReABAPoBBAgAEDs!16s%2Fg%2F11f3rdnn6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sapen/@-7.7859359,110.3564478,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59dafb0f533f:0x703ab4cd80139883!8m2!3d-7.7859359!4d110.3924967!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1jMWxJVDFWbkVBReABAPoBBAgAEDs!16s%2Fg%2F11f3rdnn6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -3613,25 +3530,24 @@
           <t>(0274) 7471010</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.9</v>
+        <v>-7.748125</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.748125</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.373677</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Taruna+Al+Qur'an/@-7.7481246,110.3376284,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58fc6badcea5:0x931ea156570af683!8m2!3d-7.7481246!4d110.3736773!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndia3QxTVRaQlJSQULgAQD6AQQIABA-!16s%2Fg%2F1hm59cyk6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Taruna+Al+Qur'an/@-7.7481246,110.3376284,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58fc6badcea5:0x931ea156570af683!8m2!3d-7.7481246!4d110.3736773!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndia3QxTVRaQlJSQULgAQD6AQQIABA-!16s%2Fg%2F1hm59cyk6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3654,25 +3570,24 @@
           <t>(0274) 867400</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.5</v>
+        <v>-7.718033</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.718033</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.358511</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Denggung/@-7.7180332,110.3224618,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58ca2a955f85:0x26c01e996fbdbff6!8m2!3d-7.7180332!4d110.3585107!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTViVXBUYlhKblJSQULgAQD6AQQIABAT!16s%2Fg%2F1pzpj5s46?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Denggung/@-7.7180332,110.3224618,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58ca2a955f85:0x26c01e996fbdbff6!8m2!3d-7.7180332!4d110.3585107!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTViVXBUYlhKblJSQULgAQD6AQQIABAT!16s%2Fg%2F1pzpj5s46?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3695,25 +3610,24 @@
           <t>0819-1555-1199</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.3</v>
+        <v>-7.756728</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.756728</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.299812</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tegal+Klaci/@-7.7567277,110.2637627,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af64e50e99bd9:0x79b1e0c9dd3f6a53!8m2!3d-7.7567277!4d110.2998116!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlFlazVUWlVGM0VBReABAPoBBAgAECA!16s%2Fg%2F1hm6ll94m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tegal+Klaci/@-7.7567277,110.2637627,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af64e50e99bd9:0x79b1e0c9dd3f6a53!8m2!3d-7.7567277!4d110.2998116!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlFlazVUWlVGM0VBReABAPoBBAgAECA!16s%2Fg%2F1hm6ll94m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3736,25 +3650,24 @@
           <t>(0274) 7481370</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.7</v>
+        <v>-7.790759</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.790759</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.41152</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Adisucipto+1/@-7.7907594,110.3754713,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a26a7580827:0x2afdaa9d4a0abf2e!8m2!3d-7.7907594!4d110.4115202!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNYMTlNVURoUlJSQULgAQD6AQQIexA2!16s%2Fg%2F1pzs_kzvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Adisucipto+1/@-7.7907594,110.3754713,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a26a7580827:0x2afdaa9d4a0abf2e!8m2!3d-7.7907594!4d110.4115202!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNYMTlNVURoUlJSQULgAQD6AQQIexA2!16s%2Fg%2F1pzs_kzvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3777,25 +3690,24 @@
           <t>(0274) 7481370</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.7</v>
+        <v>-7.701938</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.701938</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.347145</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Sleman+3/@-7.7019375,110.3110963,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f45b5d3d743:0xbd4defa98156e3d2!8m2!3d-7.7019375!4d110.3471452!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFjR1ZsUW05UlJSQULgAQD6AQQIABAg!16s%2Fg%2F11cn9dy4gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3810,25 +3722,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.7</v>
+        <v>-7.744346</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.744346</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.418186</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Malangrejo/@-7.744346,110.382137,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a597b0f1972eb:0x67e892d951af83dc!8m2!3d-7.744346!4d110.4181859!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnhlVXh1UzNaQlJSQULgAQD6AQQIABAr!16s%2Fg%2F1hm2sny6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Malangrejo/@-7.744346,110.382137,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a597b0f1972eb:0x67e892d951af83dc!8m2!3d-7.744346!4d110.4181859!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnhlVXh1UzNaQlJSQULgAQD6AQQIABAr!16s%2Fg%2F1hm2sny6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3847,25 +3758,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.7</v>
+        <v>-7.696011</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.696011</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.345608</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Sleman+5/@-7.6960111,110.3095587,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f42f6eef729:0x164e23acb7268590!8m2!3d-7.6960111!4d110.3456076!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2kt638?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3880,25 +3790,24 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.6</v>
+        <v>-7.73711</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.73711</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.362822</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+1,+Sendangadi/@-7.7371098,110.3267733,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58e972710b0d:0xd6c6d9ecb031f385!8m2!3d-7.7371098!4d110.3628222!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBlVkF5YUZsbkVBReABAPoBBAgAEEg!16s%2Fg%2F1hm3sqmn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3913,25 +3822,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.6</v>
+        <v>-7.734123</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.734123</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.391274</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Dayuharjo/@-7.7341234,110.3552255,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5917fa8a4b4d:0x4b4b81d6b89ee75f!8m2!3d-7.7341234!4d110.3912744!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldkRFZJVUZOQkVBReABAPoBBAgAECI!16s%2Fg%2F1hm3qfpm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Dayuharjo/@-7.7341234,110.3552255,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5917fa8a4b4d:0x4b4b81d6b89ee75f!8m2!3d-7.7341234!4d110.3912744!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldkRFZJVUZOQkVBReABAPoBBAgAECI!16s%2Fg%2F1hm3qfpm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3958,25 +3866,24 @@
           <t>(0274) 8722329 ext. 885765</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.6</v>
+        <v>-7.751156</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.751156</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.374781</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Islam+Al-Azhar+31/@-7.7511562,110.3387324,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58fef0374acb:0xce3a49ea67310895!8m2!3d-7.7511562!4d110.3747813!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmhYMHA2ZW5KUlJSQULgAQD6AQQIABA5!16s%2Fg%2F1hm6ktwwz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3995,25 +3902,24 @@
           <t>(0274) 870016</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.6</v>
+        <v>-7.741338</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.741338</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.442008</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Sempu/@-7.7413383,110.4059588,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5bcf640ddc6f:0x4e66479b294460e4!8m2!3d-7.7413383!4d110.4420077!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkVNblJUWDI1QlJSQULgAQD6AQQIABAe!16s%2Fg%2F1hm488p2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4032,25 +3938,24 @@
           <t>(0274) 8353303</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.4</v>
+        <v>-7.740786</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.740786</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.408898</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Minomartani+6/@-7.7407859,110.3728493,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591215ba775d:0xa1a0c060db6c31f6!8m2!3d-7.7407859!4d110.4088982!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRiVXRsU0dOM0VBReABAPoBBAgAEBE!16s%2Fg%2F1hm59cyk7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Minomartani+6/@-7.7407859,110.3728493,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591215ba775d:0xa1a0c060db6c31f6!8m2!3d-7.7407859!4d110.4088982!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRiVXRsU0dOM0VBReABAPoBBAgAEBE!16s%2Fg%2F1hm59cyk7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4069,25 +3974,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.1</v>
+        <v>-7.715562</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.715562</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.344547</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tridadi/@-7.7155625,110.308498,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58b2c6cfe30b:0x54be5ff61d421f0d!8m2!3d-7.7155625!4d110.3445469!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkViMDlsVVRoM1JSQULgAQD6AQQIABAh!16s%2Fg%2F1hm5y_f0c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tridadi/@-7.7155625,110.308498,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58b2c6cfe30b:0x54be5ff61d421f0d!8m2!3d-7.7155625!4d110.3445469!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkViMDlsVVRoM1JSQULgAQD6AQQIABAh!16s%2Fg%2F1hm5y_f0c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -4106,25 +4010,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.6</v>
+        <v>-7.730295</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.730295</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.37438</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sendangadi+2/@-7.7302948,110.3383311,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58deeea452b1:0x4fb85608dcc7f7d0!8m2!3d-7.7302948!4d110.37438!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk9jbDl1VGtSbkVBReABAPoBBAgAECM!16s%2Fg%2F1hm6bnd1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sendangadi+2/@-7.7302948,110.3383311,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58deeea452b1:0x4fb85608dcc7f7d0!8m2!3d-7.7302948!4d110.37438!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk9jbDl1VGtSbkVBReABAPoBBAgAECM!16s%2Fg%2F1hm6bnd1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4147,25 +4050,24 @@
           <t>(0274) 888646</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.9</v>
+        <v>-7.741159</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.741159</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.397657</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Bhaktikarya/@-7.741159,110.3616083,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a591239c46083:0x7d612b8aa18f529f!8m2!3d-7.741159!4d110.3976572!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZhWFF6T0VsM0VBReABAPoBBAgAECw!16s%2Fg%2F11c2093414?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4188,25 +4090,24 @@
           <t>(0274) 6497381</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.8</v>
+        <v>-7.764198</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.764198</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.315761</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sidomoyo/@-7.7641977,110.2797117,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7cef6b005cf:0x64f55f8c50482352!8m2!3d-7.7641977!4d110.3157606!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ3ZEU5ZmNrUm5FQUXgAQD6AQQIWRAi!16s%2Fg%2F1hm1x3vlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sidomoyo/@-7.7641977,110.2797117,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7cef6b005cf:0x64f55f8c50482352!8m2!3d-7.7641977!4d110.3157606!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ3ZEU5ZmNrUm5FQUXgAQD6AQQIWRAi!16s%2Fg%2F1hm1x3vlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4225,25 +4126,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.5</v>
+        <v>-7.75515</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.75515</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.411496</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Kanisius+Condongcatur/@-7.75515,110.3754468,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a599cfe4dd291:0x9ce7b04127c2f64!8m2!3d-7.75515!4d110.4114957!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhhRXg2ZFRsM1JSQULgAQD6AQQIIhAN!16s%2Fg%2F1hm2274lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4258,25 +4158,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.9</v>
+        <v>-7.722516</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.722516</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.359902</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+Jaban/@-7.7225155,110.3238528,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4b00000001:0x71f3dff7ade555fd!8m2!3d-7.7225155!4d110.3599017!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4yZUMxNWQwaG5FQUXgAQD6AQQIABAT!16s%2Fg%2F1pzrk39br?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+Jaban/@-7.7225155,110.3238528,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4b00000001:0x71f3dff7ade555fd!8m2!3d-7.7225155!4d110.3599017!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4yZUMxNWQwaG5FQUXgAQD6AQQIABAT!16s%2Fg%2F1pzrk39br?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4299,25 +4198,24 @@
           <t>(0274) 4986860</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.3</v>
+        <v>-7.779205</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.779205</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.442637</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sorogenen+2/@-7.7792046,110.4065882,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a110a53226f:0xa29b4d0b70ff889c!8m2!3d-7.7792046!4d110.4426371!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNPRXBwY1RWblJSQULgAQD6AQQIABAa!16s%2Fg%2F11b6q90p20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sorogenen+2/@-7.7792046,110.4065882,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a110a53226f:0xa29b4d0b70ff889c!8m2!3d-7.7792046!4d110.4426371!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNPRXBwY1RWblJSQULgAQD6AQQIABAa!16s%2Fg%2F11b6q90p20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4336,25 +4234,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.6</v>
+        <v>-7.703047</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.703047</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.345257</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sleman+4/@-7.7030466,110.3092082,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f450cc8e277:0xce81359a7f7f54ca!8m2!3d-7.7030466!4d110.3452571!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlVYM0YxTVdObkVBReABAPoBBAhHEDI!16s%2Fg%2F11cn9g8krv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sleman+4/@-7.7030466,110.3092082,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f450cc8e277:0xce81359a7f7f54ca!8m2!3d-7.7030466!4d110.3452571!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlVYM0YxTVdObkVBReABAPoBBAhHEDI!16s%2Fg%2F11cn9g8krv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4377,25 +4274,24 @@
           <t>(0274) 7837769</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.9</v>
+        <v>-7.737364</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.737364</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.428657</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pokoh+2/@-7.7373637,110.392608,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5bdc6707f043:0x78ba680483111d30!8m2!3d-7.7373637!4d110.4286569!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2788wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pokoh+2/@-7.7373637,110.392608,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5bdc6707f043:0x78ba680483111d30!8m2!3d-7.7373637!4d110.4286569!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2788wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4422,25 +4318,24 @@
           <t>0813-2883-2247</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.6</v>
+        <v>-7.81503</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.81503</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.314695</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ambarketawang+2/@-7.8150298,110.2786461,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af813c1f94c1b:0x67efcd3eac7f4cdb!8m2!3d-7.8150298!4d110.314695!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bxg3gfc0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ambarketawang+2/@-7.8150298,110.2786461,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af813c1f94c1b:0x67efcd3eac7f4cdb!8m2!3d-7.8150298!4d110.314695!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11bxg3gfc0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4463,25 +4358,24 @@
           <t>(0274) 4987696</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.3</v>
+        <v>-7.769482</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.769482</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.445299</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Kadirojo/@-7.7694816,110.4092502,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a3e65daa26f:0x3acc2da1208865f1!8m2!3d-7.7694816!4d110.4452991!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUndOSFptUlZOUkVBReABAPoBBAgeEBg!16s%2Fg%2F1hm6f_tl6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Kadirojo/@-7.7694816,110.4092502,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a3e65daa26f:0x3acc2da1208865f1!8m2!3d-7.7694816!4d110.4452991!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUndOSFptUlZOUkVBReABAPoBBAgeEBg!16s%2Fg%2F1hm6f_tl6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4500,25 +4394,24 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.9</v>
+        <v>-7.710803</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.710803</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.346337</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pangukan/@-7.7108033,110.3102881,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4c34f44d3b:0x833a0f9dcbcb2fff!8m2!3d-7.7108033!4d110.346337!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54WnpoNmJGSlJFQUXgAQD6AQQIDBAs!16s%2Fg%2F1hm3z16jv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pangukan/@-7.7108033,110.3102881,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4c34f44d3b:0x833a0f9dcbcb2fff!8m2!3d-7.7108033!4d110.346337!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54WnpoNmJGSlJFQUXgAQD6AQQIDBAs!16s%2Fg%2F1hm3z16jv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4545,25 +4438,24 @@
           <t>(0274) 521771</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F104" t="n">
-        <v>4.7</v>
+        <v>-7.776593</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.776593</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.367932</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jetisharjo/@-7.776593,110.3318831,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5837bfe181ef:0x94224d6c5cb799ac!8m2!3d-7.776593!4d110.367932!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxPRGhZZEhCUlJSQULgAQD6AQQIABAw!16s%2Fg%2F1hm1qn1m0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jetisharjo/@-7.776593,110.3318831,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5837bfe181ef:0x94224d6c5cb799ac!8m2!3d-7.776593!4d110.367932!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkxPRGhZZEhCUlJSQULgAQD6AQQIABAw!16s%2Fg%2F1hm1qn1m0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4590,25 +4482,24 @@
           <t>0813-2828-9936</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.3</v>
+        <v>-7.751082</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.751082</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.443723</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Dasar+Muhammadiyah,+Kadisoka/@-7.7510816,110.4076738,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a3354a7175f:0x58d807605b872f78!8m2!3d-7.7510816!4d110.4437227!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhiVTlJV1dWQkVBReABAPoBBAhlEEU!16s%2Fg%2F1hm44sc9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Dasar+Muhammadiyah,+Kadisoka/@-7.7510816,110.4076738,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a3354a7175f:0x58d807605b872f78!8m2!3d-7.7510816!4d110.4437227!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhiVTlJV1dWQkVBReABAPoBBAhlEEU!16s%2Fg%2F1hm44sc9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>8 jam lalu</t>
         </is>
@@ -4635,25 +4526,24 @@
           <t>(0274) 4462882</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.6</v>
+        <v>-7.744637</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.744637</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.392229</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDIT+Salsabila+2+Klaseman+UNIT+2/@-7.7446367,110.3561801,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a590fbf5a1631:0xabf97af4c392ced7!8m2!3d-7.7446367!4d110.392229!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjJaelpwYlc1QlJSQULgAQD6AQQIHhAU!16s%2Fg%2F11cjj4lxkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDIT+Salsabila+2+Klaseman+UNIT+2/@-7.7446367,110.3561801,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a590fbf5a1631:0xabf97af4c392ced7!8m2!3d-7.7446367!4d110.392229!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjJaelpwYlc1QlJSQULgAQD6AQQIHhAU!16s%2Fg%2F11cjj4lxkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4676,25 +4566,24 @@
           <t>(0274) 4360255</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.4</v>
+        <v>-7.707568</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.707568</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.386824</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Rejodani/@-7.7075679,110.350775,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5ed3d7a1e3d1:0x1bd36ce93ffc690d!8m2!3d-7.7075679!4d110.3868239!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRla2xoU1VabkVBReABAPoBBAgAEDQ!16s%2Fg%2F1hm6jxl8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Rejodani/@-7.7075679,110.350775,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5ed3d7a1e3d1:0x1bd36ce93ffc690d!8m2!3d-7.7075679!4d110.3868239!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXRla2xoU1VabkVBReABAPoBBAgAEDQ!16s%2Fg%2F1hm6jxl8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4717,25 +4606,24 @@
           <t>(0274) 867345</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F108" t="n">
-        <v>4.7</v>
+        <v>-7.70222</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.70222</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.345577</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sleman/@-7.7022204,110.3095283,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f4500605b51:0xfc10f1f72fcac183!8m2!3d-7.7022204!4d110.3455772!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVhbDlIU1MxUlJSQULgAQD6AQQIABA_!16s%2Fg%2F1hm3rn42y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4758,25 +4646,24 @@
           <t>(0274) 4360724</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.2</v>
+        <v>-7.715224</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.715224</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.369513</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Tlacap/@-7.7152237,110.3334641,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58d31d8e8275:0x7687641706d907a3!8m2!3d-7.7152237!4d110.369513!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXRYMHBRVG10M1JSQULgAQD6AQUIiQEQRQ!16s%2Fg%2F1hm2xb3c5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4791,25 +4678,24 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.2</v>
+        <v>-7.785633</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.785633</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.270808</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Pendulan/@-7.7856327,110.2347595,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af76e05a5670b:0x38a9966b33482e98!8m2!3d-7.7856327!4d110.2708084!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVNbUkyZEhaQlJSQULgAQD6AQQIABAh!16s%2Fg%2F1hm3zj521?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4828,25 +4714,24 @@
           <t>(0274) 4986125</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F111" t="n">
-        <v>4.6</v>
+        <v>-7.790956</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.790956</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.461238</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tanjungtirto+1/@-7.790956,110.4251886,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a77e35102d9:0xe871928955b8ceda!8m2!3d-7.790956!4d110.4612375!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdhSFI2Y1ZSM0VBReABAPoBBAgAEBg!16s%2Fg%2F1hm3bvllf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tanjungtirto+1/@-7.790956,110.4251886,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a77e35102d9:0xe871928955b8ceda!8m2!3d-7.790956!4d110.4612375!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdhSFI2Y1ZSM0VBReABAPoBBAgAEBg!16s%2Fg%2F1hm3bvllf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -4869,25 +4754,24 @@
           <t>(0274) 4986125</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.6</v>
+        <v>-7.803506</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.803506</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.371121</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Sayidan/@-7.8035056,110.3350718,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a57848a961d3d:0x2e0b0dfd5c6b64cb!8m2!3d-7.8035056!4d110.3711207!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTVNMWxVTWtoQkVBReABAPoBBAgZECk!16s%2Fg%2F1hm31v63r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4902,25 +4786,24 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.5</v>
+        <v>-7.728808</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.728808</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.411898</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Krapyak+1/@-7.7288082,110.375849,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59430f82cf91:0x2b91684090dea0a7!8m2!3d-7.7288082!4d110.4118979!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkVhbkZIY25wblJSQULgAQD6AQQIABA0!16s%2Fg%2F1hm3swtn7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Krapyak+1/@-7.7288082,110.375849,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59430f82cf91:0x2b91684090dea0a7!8m2!3d-7.7288082!4d110.4118979!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkVhbkZIY25wblJSQULgAQD6AQQIABA0!16s%2Fg%2F1hm3swtn7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -4947,25 +4830,24 @@
           <t>(0274) 4477477</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F114" t="n">
-        <v>4.6</v>
+        <v>-7.739953</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.739953</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.418367</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salman+Al+Farisi+2/@-7.7288082,110.375849,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5964f2f0ae3b:0x64af435d95dcf7d2!8m2!3d-7.7399526!4d110.4183674!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmllWFZmWkZwbkVBReABAPoBBQjLAhAk!16s%2Fg%2F1hm27xf8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J114" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salman+Al+Farisi+2/@-7.7288082,110.375849,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5964f2f0ae3b:0x64af435d95dcf7d2!8m2!3d-7.7399526!4d110.4183674!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmllWFZmWkZwbkVBReABAPoBBQjLAhAk!16s%2Fg%2F1hm27xf8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -4992,25 +4874,24 @@
           <t>(0274) 4477477</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F115" t="n">
-        <v>4.6</v>
+        <v>-7.728509</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.728509</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.358017</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Kanisius+Duwet/@-7.728509,110.3219679,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58c6dea2280b:0xe2e62c7579d3e3bf!8m2!3d-7.728509!4d110.3580168!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndaMkZQUnkxUlJSQULgAQD6AQQIfBAW!16s%2Fg%2F1hm3typlc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5029,25 +4910,24 @@
           <t>(0274) 4531474</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.4</v>
+        <v>-7.718681</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.718681</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.417767</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Taraman/@-7.718681,110.3817184,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a595103b97fd3:0x2159928e44b1d93f!8m2!3d-7.718681!4d110.4177673!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkVhbkpFUnpaQlJSQULgAQD6AQQIJBAn!16s%2Fg%2F1hm2lkmd8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5070,25 +4950,24 @@
           <t>0812-3662-0206</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.8</v>
+        <v>-7.721942</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.721942</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.372116</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Ash+Shiddiq/@-7.7219424,110.3360667,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58d111667c0f:0x195d6d45fb2daaa2!8m2!3d-7.7219424!4d110.3721156!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldOelZFY0RSblJSQULgAQD6AQQIABAT!16s%2Fg%2F11c1wvp67r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Ash+Shiddiq/@-7.7219424,110.3360667,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58d111667c0f:0x195d6d45fb2daaa2!8m2!3d-7.7219424!4d110.3721156!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldOelZFY0RSblJSQULgAQD6AQQIABAT!16s%2Fg%2F11c1wvp67r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -5107,25 +4986,24 @@
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.5</v>
+        <v>-7.72786</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.72786</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.425358</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+KRAPYAK+2/@-7.7278597,110.3893094,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a595f6f3453bd:0x39f445342d956580!8m2!3d-7.7278597!4d110.4253583!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFNVWwxZEVaUkVBReABAPoBBAgAECk!16s%2Fg%2F11f04drmqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+KRAPYAK+2/@-7.7278597,110.3893094,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a595f6f3453bd:0x39f445342d956580!8m2!3d-7.7278597!4d110.4253583!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFNVWwxZEVaUkVBReABAPoBBAgAECk!16s%2Fg%2F11f04drmqc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -5144,25 +5022,24 @@
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>5</v>
+      </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>-7.709536</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.709536</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.355156</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+Dukuh+1+Sleman/@-7.7095359,110.3191067,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f0015fbaa4f:0xa9ec0ac2378e2c21!8m2!3d-7.7095359!4d110.3551556!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpTURaNmQzRkJSUkFC4AEA-gEFCJgBEB8!16s%2Fg%2F11w9rjvlm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+Dukuh+1+Sleman/@-7.7095359,110.3191067,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f0015fbaa4f:0xa9ec0ac2378e2c21!8m2!3d-7.7095359!4d110.3551556!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpTURaNmQzRkJSUkFC4AEA-gEFCJgBEB8!16s%2Fg%2F11w9rjvlm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -5181,25 +5058,24 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F120" t="n">
-        <v>4.7</v>
+        <v>-7.700942</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.700942</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.364592</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pandowoharjo/@-7.7095359,110.3191067,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f3b1d601cdb:0x5dce17b139577914!8m2!3d-7.7009424!4d110.3645917!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTndaM1Z4UVd4QlJSQULgAQD6AQQIFhAs!16s%2Fg%2F1hm1smvnm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pandowoharjo/@-7.7095359,110.3191067,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f3b1d601cdb:0x5dce17b139577914!8m2!3d-7.7009424!4d110.3645917!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgEOcHJpbWFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTndaM1Z4UVd4QlJSQULgAQD6AQQIFhAs!16s%2Fg%2F1hm1smvnm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -5222,25 +5098,24 @@
           <t>(0274) 865060</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>-7.714534</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.714534</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.379077</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangmloko+II/@-7.7145342,110.3430283,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a592a98f98629:0x5c665f89256a366!8m2!3d-7.7145342!4d110.3790772!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRlVnBIVURoM1JSQULgAQD6AQQIABAP!16s%2Fg%2F1hm3dc3b1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangmloko+II/@-7.7145342,110.3430283,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a592a98f98629:0x5c665f89256a366!8m2!3d-7.7145342!4d110.3790772!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRlVnBIVURoM1JSQULgAQD6AQQIABAP!16s%2Fg%2F1hm3dc3b1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
